--- a/biology/Botanique/Trichocomaceae/Trichocomaceae.xlsx
+++ b/biology/Botanique/Trichocomaceae/Trichocomaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trichocomaceae sont une famille de champignons Ascomycètes. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (6 janvier 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (6 janvier 2018) :
 genre Aspergillus
 genre Byssochlamys
 genre Capsulotheca
@@ -549,12 +563,48 @@
 genre Torulomyces
 genre Trichocoma
 genre Xerochrysium
-Selon ITIS      (6 janvier 2018)[2] :
+Selon ITIS      (6 janvier 2018) :
 genre Eupenicillium
 genre Eurotium Link
 genre Neosartorya D. Malloch &amp; R. F. Cain, 1972
 genre Talaromyces C. R. Benjamin, 1955
-Genres[3]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trichocomaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichocomaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres[3]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Byssochlamys
 Chaetosartorya
 Chaetotheca
